--- a/trunk/Matriz de PP_PMC.xlsx
+++ b/trunk/Matriz de PP_PMC.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="PP" sheetId="1" r:id="rId1"/>
+    <sheet name="PMC" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>Actividades</t>
   </si>
@@ -160,16 +160,44 @@
   </si>
   <si>
     <t>Corregir Plan del proyecto</t>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>SP 1.5</t>
+  </si>
+  <si>
+    <t>SP 1.6</t>
+  </si>
+  <si>
+    <t>SP 1.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,16 +256,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,6 +271,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -544,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -555,67 +598,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -623,646 +666,646 @@
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
+      <c r="C26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="C30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1275,13 +1318,477 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="3" max="12" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" s="1"/>
+      <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/Matriz de PP_PMC.xlsx
+++ b/trunk/Matriz de PP_PMC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PP" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>Actividades</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>SP 1.7</t>
+  </si>
+  <si>
+    <t>Actividades vs Prácticas específicas</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -273,9 +282,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -290,6 +296,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -598,67 +610,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1320,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1331,52 +1346,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="1"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
